--- a/testing_results/results_tai20x15.xlsx
+++ b/testing_results/results_tai20x15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,170 +443,49 @@
       <c r="C1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>13</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1484983714106603</v>
+        <v>0.1360332392390106</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1540235486127275</v>
+        <v>0.141660887385594</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1498023113722296</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.136475720054932</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.1498198445422044</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.1481496932119123</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.142714845048823</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.1589671783479375</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.1450520055420902</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.1565182415253047</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.1500049055750619</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.1655726839407531</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.141660887385594</v>
-      </c>
-      <c r="N2" t="n">
         <v>0.09557656642323828</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.1315642767573474</v>
+        <v>0.116225369532429</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1404727256179041</v>
+        <v>0.1307666558768706</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1295645846035258</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.1269701697422384</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.1300193327097217</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.1339461959252</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.1345902495971921</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.1455328112770158</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.1335917442439309</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.1485921557744181</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1386020997098351</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.1508310911156508</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.1307666558768706</v>
-      </c>
-      <c r="N3" t="n">
         <v>0.09080049545367817</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.1225661261720686</v>
+        <v>0.09777969583512176</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1326768329164091</v>
+        <v>0.1161047519271819</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1151584748921863</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.118152084877189</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.1086701483604364</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.1227182623991706</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.1198385307019651</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.1310194323182143</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.1269707460685665</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.1434325924556557</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1305087114944998</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.1347442403915364</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.1161047519271819</v>
-      </c>
-      <c r="N4" t="n">
         <v>0.08021134087323843</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.08612705120182887</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.106011057857588</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.08166999696194095</v>
       </c>
     </row>
   </sheetData>
